--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -615,10 +615,10 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3259.35</v>
+        <v>3286.92</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>212.41</v>
+        <v>239.98</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -662,10 +662,10 @@
         <v>2001.67</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3234.7</v>
+        <v>3274.73</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>-80.09999999999999</v>
+        <v>-40.07</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -709,10 +709,10 @@
         <v>2224.19</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3193.94</v>
+        <v>3249.54</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>30.45</v>
+        <v>86.05</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         <v>2919.29</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2684</v>
+        <v>2705.01</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-47.69</v>
+        <v>-26.68</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -803,10 +803,10 @@
         <v>1126.01</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2061.84</v>
+        <v>2111.94</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>52.44</v>
+        <v>102.54</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -850,10 +850,10 @@
         <v>803.1</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1712.69</v>
+        <v>1760.15</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>18.06</v>
+        <v>65.52</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -897,10 +897,10 @@
         <v>550.4</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>511.43</v>
+        <v>515.12</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-29.46</v>
+        <v>-25.77</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         <v>536.3099999999999</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>507.83</v>
+        <v>512.71</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-5.76</v>
+        <v>-0.88</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -991,10 +991,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>412.73</v>
+        <v>417.46</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>55.95</v>
+        <v>60.68</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1038,10 +1038,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>325.75</v>
+        <v>329.72</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>12.49</v>
+        <v>16.46</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1085,10 +1085,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>87.70999999999999</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5</v>
+        <v>-3.53</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1273,10 +1273,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>8991.709999999999</v>
+        <v>9072.02</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-3008.29</v>
+        <v>-2927.97</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1790,10 +1790,10 @@
         <v>3813.64</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>7442.7</v>
+        <v>7502.57</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>105.7</v>
+        <v>165.57</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1837,10 +1837,10 @@
         <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>5224.6</v>
+        <v>5271.27</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>-111.4</v>
+        <v>-64.73</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1884,10 +1884,10 @@
         <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4681.44</v>
+        <v>4726.43</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>12.44</v>
+        <v>57.43</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1931,10 +1931,10 @@
         <v>7379.54</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4029.23</v>
+        <v>4066.13</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>27.23</v>
+        <v>64.13</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1978,10 +1978,10 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3425.2</v>
+        <v>3456.6</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>90.2</v>
+        <v>121.6</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2025,10 +2025,10 @@
         <v>3055.68</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>3358.19</v>
+        <v>3397.92</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>23.19</v>
+        <v>62.92</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2072,10 +2072,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>694.85</v>
+        <v>700.88</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>27.85</v>
+        <v>33.88</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2119,10 +2119,10 @@
         <v>400.63</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>694.17</v>
+        <v>700.3</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>27.17</v>
+        <v>33.3</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2166,10 +2166,10 @@
         <v>281.57</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>277.43</v>
+        <v>280.98</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>-2.71</v>
+        <v>0.84</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2213,10 +2213,10 @@
         <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>2013.98</v>
+        <v>2003.38</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>12.98</v>
+        <v>2.38</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
         <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>729.08</v>
+        <v>726.77</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>62.08</v>
+        <v>59.77</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2307,10 +2307,10 @@
         <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>694.52</v>
+        <v>698.38</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>27.52</v>
+        <v>31.38</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2354,10 +2354,10 @@
         <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>729.21</v>
+        <v>728.59</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>62.21</v>
+        <v>61.59</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2401,10 +2401,10 @@
         <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2042.8</v>
+        <v>2059.23</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>42.8</v>
+        <v>59.23</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2448,10 +2448,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1071.88</v>
+        <v>1088.83</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>71.88</v>
+        <v>88.83</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2495,10 +2495,10 @@
         <v>927.97</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1019.84</v>
+        <v>1031.9</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>19.84</v>
+        <v>31.9</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>923.59</v>
+        <v>932.05</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-76.41</v>
+        <v>-67.95</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2589,10 +2589,10 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2285.02</v>
+        <v>2304.64</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>285.02</v>
+        <v>304.64</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2636,10 +2636,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1137.37</v>
+        <v>1133.77</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>137.37</v>
+        <v>133.77</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2683,10 +2683,10 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1041.04</v>
+        <v>1046.83</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>41.04</v>
+        <v>46.83</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2730,10 +2730,10 @@
         <v>953.96</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1137.12</v>
+        <v>1136.17</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>137.12</v>
+        <v>136.17</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2777,10 +2777,10 @@
         <v>2204.19</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>837.59</v>
+        <v>833.1799999999999</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>-162.41</v>
+        <v>-166.82</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2824,10 +2824,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>71505.69</v>
+        <v>72351.53</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>5185.69</v>
+        <v>6031.53</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2871,10 +2871,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>60118.68</v>
+        <v>60696.44</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>1918.68</v>
+        <v>2496.44</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2918,10 +2918,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>36879.47</v>
+        <v>37125.48</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>4879.47</v>
+        <v>5125.48</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2965,10 +2965,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>35153.85</v>
+        <v>35596.81</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>4593.85</v>
+        <v>5036.81</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3012,10 +3012,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>33564.75</v>
+        <v>33765.62</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>1564.75</v>
+        <v>1765.62</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3106,10 +3106,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>23750.36</v>
+        <v>24130.6</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4550.36</v>
+        <v>4930.6</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3153,10 +3153,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23144.87</v>
+        <v>23538.52</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>3944.87</v>
+        <v>4338.52</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3200,10 +3200,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>21207.98</v>
+        <v>21140.87</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2007.98</v>
+        <v>1940.87</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3247,10 +3247,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15219.1</v>
+        <v>15342.99</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2419.1</v>
+        <v>2542.99</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3294,10 +3294,10 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>14161.63</v>
+        <v>14087.09</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-5038.37</v>
+        <v>-5112.91</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3341,10 +3341,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10271.88</v>
+        <v>10328.99</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>371.88</v>
+        <v>428.99</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3388,10 +3388,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8301.59</v>
+        <v>8374.889999999999</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>1901.59</v>
+        <v>1974.89</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3482,10 +3482,10 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7203.26</v>
+        <v>7267.6</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>803.26</v>
+        <v>867.6</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3529,10 +3529,10 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7164.86</v>
+        <v>7206.42</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>764.86</v>
+        <v>806.42</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3576,10 +3576,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6719.18</v>
+        <v>6777.52</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-280.82</v>
+        <v>-222.48</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3623,10 +3623,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>5910.94</v>
+        <v>5965.13</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-489.06</v>
+        <v>-434.87</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3670,10 +3670,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3375.05</v>
+        <v>3406.56</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-124.95</v>
+        <v>-93.44</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1320,10 +1320,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8240.4</v>
+        <v>8280.9</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1930.5</v>
+        <v>1971</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36636.6</v>
+        <v>36773.1</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>5268.9</v>
+        <v>5405.4</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
         <v>38200</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>204981.2</v>
+        <v>206432.8</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-9168</v>
+        <v>-7716.4</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24336</v>
+        <v>24538.8</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5306.6</v>
+        <v>-5103.8</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>30509.1</v>
+        <v>30705.3</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>4905</v>
+        <v>5101.2</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1555,10 +1555,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>25779.6</v>
+        <v>25916</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3853.3</v>
+        <v>-3716.9</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1602,10 +1602,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>15241.5</v>
+        <v>15237</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>2389.5</v>
+        <v>2385</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1649,10 +1649,10 @@
         <v>1200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>3658.8</v>
+        <v>3692.4</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>118.8</v>
+        <v>152.4</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1696,10 +1696,10 @@
         <v>9200</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>14950</v>
+        <v>15097.2</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2079.2</v>
+        <v>2226.4</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1743,10 +1743,10 @@
         <v>14400</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>20016</v>
+        <v>20304</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>1713.6</v>
+        <v>2001.6</v>
       </c>
       <c r="G28" s="26" t="inlineStr">
         <is>
@@ -2435,23 +2435,23 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B43" s="28" t="n">
-        <v>1051</v>
+        <v>100032</v>
       </c>
       <c r="C43" s="29" t="n">
-        <v>0.9441000000000001</v>
+        <v>1.0954</v>
       </c>
       <c r="D43" s="30" t="n">
-        <v>1059.17</v>
+        <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1088.83</v>
+        <v>2030.4</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>88.83</v>
+        <v>30.4</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2460,17 +2460,17 @@
       </c>
       <c r="H43" s="31" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I43" s="31" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J43" s="31" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K43" s="31" t="inlineStr">
@@ -2482,23 +2482,23 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B44" s="28" t="n">
-        <v>100032</v>
+        <v>1051</v>
       </c>
       <c r="C44" s="29" t="n">
-        <v>1.0776</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D44" s="30" t="n">
-        <v>927.97</v>
+        <v>1059.17</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1031.9</v>
+        <v>1088.83</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>31.9</v>
+        <v>88.83</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2507,17 +2507,17 @@
       </c>
       <c r="H44" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I44" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J44" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K44" s="31" t="inlineStr">
@@ -2529,23 +2529,23 @@
     <row r="45">
       <c r="A45" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B45" s="28" t="n">
-        <v>4752</v>
+        <v>1052</v>
       </c>
       <c r="C45" s="29" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5517</v>
       </c>
       <c r="D45" s="30" t="n">
-        <v>1227.03</v>
+        <v>1812.7</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>932.05</v>
+        <v>998.8</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-67.95</v>
+        <v>-1.2</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2554,17 +2554,17 @@
       </c>
       <c r="H45" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I45" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J45" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K45" s="31" t="inlineStr">
@@ -2576,42 +2576,42 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>216</v>
+        <v>4752</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>1.0902</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>1834.47</v>
+        <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2304.64</v>
+        <v>932.05</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>304.64</v>
+        <v>-67.95</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2623,42 +2623,42 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>164906</v>
+        <v>216</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>1.1113</v>
+        <v>1.0902</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>1834.47</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1133.77</v>
+        <v>2304.64</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>133.77</v>
+        <v>304.64</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2670,23 +2670,23 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1046.83</v>
+        <v>1133.77</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>46.83</v>
+        <v>133.77</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2695,17 +2695,17 @@
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2717,42 +2717,42 @@
     <row r="49">
       <c r="A49" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B49" s="28" t="n">
-        <v>614</v>
+        <v>71</v>
       </c>
       <c r="C49" s="29" t="n">
-        <v>1.0483</v>
+        <v>1.4513</v>
       </c>
       <c r="D49" s="30" t="n">
-        <v>953.96</v>
+        <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1136.17</v>
+        <v>1046.83</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>136.17</v>
+        <v>46.83</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H49" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I49" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J49" s="31" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K49" s="31" t="inlineStr">
@@ -2764,117 +2764,117 @@
     <row r="50">
       <c r="A50" s="27" t="inlineStr">
         <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B50" s="28" t="n">
+        <v>614</v>
+      </c>
+      <c r="C50" s="29" t="n">
+        <v>1.0483</v>
+      </c>
+      <c r="D50" s="30" t="n">
+        <v>953.96</v>
+      </c>
+      <c r="E50" s="30" t="n">
+        <v>1136.17</v>
+      </c>
+      <c r="F50" s="30" t="n">
+        <v>136.17</v>
+      </c>
+      <c r="G50" s="31" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H50" s="31" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="I50" s="31" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="J50" s="31" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="K50" s="31" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="27" t="inlineStr">
+        <is>
           <t>华宝标普石油指数</t>
         </is>
       </c>
-      <c r="B50" s="28" t="n">
+      <c r="B51" s="28" t="n">
         <v>162411</v>
       </c>
-      <c r="C50" s="29" t="n">
+      <c r="C51" s="29" t="n">
         <v>0.4537</v>
       </c>
-      <c r="D50" s="30" t="n">
+      <c r="D51" s="30" t="n">
         <v>2204.19</v>
       </c>
-      <c r="E50" s="30" t="n">
+      <c r="E51" s="30" t="n">
         <v>833.1799999999999</v>
       </c>
-      <c r="F50" s="30" t="n">
+      <c r="F51" s="30" t="n">
         <v>-166.82</v>
       </c>
-      <c r="G50" s="31" t="inlineStr">
+      <c r="G51" s="31" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="H50" s="31" t="inlineStr">
+      <c r="H51" s="31" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="I50" s="31" t="inlineStr">
+      <c r="I51" s="31" t="inlineStr">
         <is>
           <t>原油</t>
         </is>
       </c>
-      <c r="J50" s="31" t="inlineStr">
+      <c r="J51" s="31" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K50" s="31" t="inlineStr">
+      <c r="K51" s="31" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="32" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B51" s="33" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C51" s="34" t="n">
-        <v>1.0193</v>
-      </c>
-      <c r="D51" s="35" t="n">
-        <v>65064.33</v>
-      </c>
-      <c r="E51" s="35" t="n">
-        <v>72351.53</v>
-      </c>
-      <c r="F51" s="35" t="n">
-        <v>6031.53</v>
-      </c>
-      <c r="G51" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H51" s="36" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I51" s="36" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J51" s="36" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K51" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B52" s="33" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C52" s="34" t="n">
-        <v>0.9167</v>
+        <v>1.0193</v>
       </c>
       <c r="D52" s="35" t="n">
-        <v>63490</v>
+        <v>65064.33</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>60696.44</v>
+        <v>72351.53</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>2496.44</v>
+        <v>6031.53</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2883,17 +2883,17 @@
       </c>
       <c r="H52" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I52" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J52" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K52" s="36" t="inlineStr">
@@ -2905,42 +2905,42 @@
     <row r="53">
       <c r="A53" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B53" s="33" t="n">
-        <v>340001</v>
+        <v>968</v>
       </c>
       <c r="C53" s="34" t="n">
-        <v>0.9886</v>
+        <v>0.9167</v>
       </c>
       <c r="D53" s="35" t="n">
-        <v>32370.29</v>
+        <v>63490</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37125.48</v>
+        <v>60696.44</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5125.48</v>
+        <v>2496.44</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H53" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I53" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J53" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K53" s="36" t="inlineStr">
@@ -2952,42 +2952,42 @@
     <row r="54">
       <c r="A54" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B54" s="33" t="n">
-        <v>1180</v>
+        <v>340001</v>
       </c>
       <c r="C54" s="34" t="n">
-        <v>0.7451</v>
+        <v>0.9886</v>
       </c>
       <c r="D54" s="35" t="n">
-        <v>41014.88</v>
+        <v>32370.29</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>35596.81</v>
+        <v>37125.48</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5036.81</v>
+        <v>5125.48</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H54" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I54" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J54" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K54" s="36" t="inlineStr">
@@ -2999,42 +2999,42 @@
     <row r="55">
       <c r="A55" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B55" s="33" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C55" s="34" t="n">
-        <v>1.5931</v>
+        <v>0.7451</v>
       </c>
       <c r="D55" s="35" t="n">
-        <v>20086.63</v>
+        <v>41014.88</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>33765.62</v>
+        <v>35596.81</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>1765.62</v>
+        <v>5036.81</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H55" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I55" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J55" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K55" s="36" t="inlineStr">
@@ -3046,42 +3046,42 @@
     <row r="56">
       <c r="A56" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B56" s="33" t="n">
-        <v>614</v>
+        <v>110027</v>
       </c>
       <c r="C56" s="34" t="n">
-        <v>1.091</v>
+        <v>1.5931</v>
       </c>
       <c r="D56" s="35" t="n">
-        <v>20716.63</v>
+        <v>20086.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>24694.22</v>
+        <v>33765.62</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2094.22</v>
+        <v>1765.62</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H56" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I56" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J56" s="36" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K56" s="36" t="inlineStr">
@@ -3093,42 +3093,42 @@
     <row r="57">
       <c r="A57" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B57" s="33" t="n">
-        <v>100038</v>
+        <v>614</v>
       </c>
       <c r="C57" s="34" t="n">
-        <v>1.3129</v>
+        <v>1.091</v>
       </c>
       <c r="D57" s="35" t="n">
-        <v>14624.61</v>
+        <v>20716.63</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24130.6</v>
+        <v>24673.5</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4930.6</v>
+        <v>2073.5</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H57" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="I57" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J57" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>311</t>
         </is>
       </c>
       <c r="K57" s="36" t="inlineStr">
@@ -3140,23 +3140,23 @@
     <row r="58">
       <c r="A58" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B58" s="33" t="n">
-        <v>1469</v>
+        <v>100038</v>
       </c>
       <c r="C58" s="34" t="n">
-        <v>0.9073</v>
+        <v>1.3129</v>
       </c>
       <c r="D58" s="35" t="n">
-        <v>21163.93</v>
+        <v>14624.61</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23538.52</v>
+        <v>24130.6</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>4338.52</v>
+        <v>4930.6</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3165,17 +3165,17 @@
       </c>
       <c r="H58" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I58" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J58" s="36" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K58" s="36" t="inlineStr">
@@ -3187,42 +3187,42 @@
     <row r="59">
       <c r="A59" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B59" s="33" t="n">
-        <v>164906</v>
+        <v>1469</v>
       </c>
       <c r="C59" s="34" t="n">
-        <v>1.1444</v>
+        <v>0.9073</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>16778.47</v>
+        <v>21163.93</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>21140.87</v>
+        <v>23538.52</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1940.87</v>
+        <v>4338.52</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H59" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I59" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J59" s="36" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K59" s="36" t="inlineStr">
@@ -3234,42 +3234,42 @@
     <row r="60">
       <c r="A60" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B60" s="33" t="n">
-        <v>161017</v>
+        <v>164906</v>
       </c>
       <c r="C60" s="34" t="n">
-        <v>1.3432</v>
+        <v>1.1444</v>
       </c>
       <c r="D60" s="35" t="n">
-        <v>9529.809999999999</v>
+        <v>16778.47</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15342.99</v>
+        <v>21140.87</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2542.99</v>
+        <v>1940.87</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H60" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I60" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J60" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K60" s="36" t="inlineStr">
@@ -3281,42 +3281,42 @@
     <row r="61">
       <c r="A61" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B61" s="33" t="n">
-        <v>162411</v>
+        <v>161017</v>
       </c>
       <c r="C61" s="34" t="n">
-        <v>0.5152</v>
+        <v>1.3432</v>
       </c>
       <c r="D61" s="35" t="n">
-        <v>37267.45</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>14087.09</v>
+        <v>15342.99</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-5112.91</v>
+        <v>2542.99</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H61" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I61" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J61" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K61" s="36" t="inlineStr">
@@ -3328,42 +3328,42 @@
     <row r="62">
       <c r="A62" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B62" s="33" t="n">
-        <v>71</v>
+        <v>162411</v>
       </c>
       <c r="C62" s="34" t="n">
-        <v>1.4562</v>
+        <v>0.5152</v>
       </c>
       <c r="D62" s="35" t="n">
-        <v>6798.52</v>
+        <v>37267.45</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10328.99</v>
+        <v>14087.09</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>428.99</v>
+        <v>-5112.91</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H62" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I62" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J62" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K62" s="36" t="inlineStr">
@@ -3375,42 +3375,42 @@
     <row r="63">
       <c r="A63" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B63" s="33" t="n">
-        <v>110026</v>
+        <v>71</v>
       </c>
       <c r="C63" s="34" t="n">
-        <v>1.3359</v>
+        <v>1.4562</v>
       </c>
       <c r="D63" s="35" t="n">
-        <v>4791.13</v>
+        <v>6798.52</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8374.889999999999</v>
+        <v>10328.99</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>1974.89</v>
+        <v>428.99</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H63" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I63" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J63" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K63" s="36" t="inlineStr">
@@ -3422,42 +3422,42 @@
     <row r="64">
       <c r="A64" s="32" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B64" s="33" t="n">
-        <v>1061</v>
+        <v>110026</v>
       </c>
       <c r="C64" s="34" t="n">
-        <v>0.9172</v>
+        <v>1.3359</v>
       </c>
       <c r="D64" s="35" t="n">
-        <v>5609.79</v>
+        <v>4791.13</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7567.6</v>
+        <v>8374.889999999999</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2422.48</v>
+        <v>1974.89</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H64" s="36" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I64" s="36" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J64" s="36" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K64" s="36" t="inlineStr">
@@ -3469,42 +3469,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>0.4775</v>
+        <v>0.9172</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>13403.92</v>
+        <v>5609.79</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7267.6</v>
+        <v>7567.6</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>867.6</v>
+        <v>2422.48</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3516,42 +3516,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7206.42</v>
+        <v>7267.6</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>806.42</v>
+        <v>867.6</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3563,42 +3563,42 @@
     <row r="67">
       <c r="A67" s="32" t="inlineStr">
         <is>
-          <t>广发中证500ETF联接C</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B67" s="33" t="n">
-        <v>2903</v>
+        <v>519977</v>
       </c>
       <c r="C67" s="34" t="n">
-        <v>0.9</v>
+        <v>1.2011</v>
       </c>
       <c r="D67" s="35" t="n">
-        <v>7778.64</v>
+        <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6777.52</v>
+        <v>7206.42</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-222.48</v>
+        <v>806.42</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H67" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I67" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J67" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K67" s="36" t="inlineStr">
@@ -3610,23 +3610,23 @@
     <row r="68">
       <c r="A68" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发中证500ETF联接C</t>
         </is>
       </c>
       <c r="B68" s="33" t="n">
-        <v>4752</v>
+        <v>2903</v>
       </c>
       <c r="C68" s="34" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="D68" s="35" t="n">
-        <v>7852.99</v>
+        <v>7778.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>5965.13</v>
+        <v>6777.52</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-434.87</v>
+        <v>-222.48</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3635,17 +3635,17 @@
       </c>
       <c r="H68" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I68" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J68" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K68" s="36" t="inlineStr">
@@ -3657,51 +3657,98 @@
     <row r="69">
       <c r="A69" s="32" t="inlineStr">
         <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B69" s="33" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C69" s="34" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D69" s="35" t="n">
+        <v>7852.99</v>
+      </c>
+      <c r="E69" s="35" t="n">
+        <v>5965.13</v>
+      </c>
+      <c r="F69" s="35" t="n">
+        <v>-434.87</v>
+      </c>
+      <c r="G69" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H69" s="36" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I69" s="36" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J69" s="36" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K69" s="36" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="32" t="inlineStr">
+        <is>
           <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
-      <c r="B69" s="33" t="n">
+      <c r="B70" s="33" t="n">
         <v>3647</v>
       </c>
-      <c r="C69" s="34" t="n">
+      <c r="C70" s="34" t="n">
         <v>0.9776</v>
       </c>
-      <c r="D69" s="35" t="n">
+      <c r="D70" s="35" t="n">
         <v>3580.2</v>
       </c>
-      <c r="E69" s="35" t="n">
+      <c r="E70" s="35" t="n">
         <v>3406.56</v>
       </c>
-      <c r="F69" s="35" t="n">
+      <c r="F70" s="35" t="n">
         <v>-93.44</v>
       </c>
-      <c r="G69" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H69" s="36" t="inlineStr">
+      <c r="G70" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H70" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I69" s="36" t="inlineStr">
+      <c r="I70" s="36" t="inlineStr">
         <is>
           <t>中证1000</t>
         </is>
       </c>
-      <c r="J69" s="36" t="inlineStr">
+      <c r="J70" s="36" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="K69" s="36" t="inlineStr">
+      <c r="K70" s="36" t="inlineStr">
         <is>
           <t>天天基金</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1320,10 +1320,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8280.9</v>
+        <v>8286.299999999999</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1971</v>
+        <v>1976.4</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36773.1</v>
+        <v>36754.9</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>5405.4</v>
+        <v>5387.2</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
         <v>38200</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>206432.8</v>
+        <v>205554.2</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-7716.4</v>
+        <v>-8595</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24538.8</v>
+        <v>24471.2</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5103.8</v>
+        <v>-5171.4</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>30705.3</v>
+        <v>30541.8</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>5101.2</v>
+        <v>4937.7</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1555,10 +1555,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>25916</v>
+        <v>25745.5</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3716.9</v>
+        <v>-3887.4</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1602,10 +1602,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>15237</v>
+        <v>15223.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>2385</v>
+        <v>2371.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1649,10 +1649,10 @@
         <v>1200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>3692.4</v>
+        <v>3681.6</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>152.4</v>
+        <v>141.6</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1696,10 +1696,10 @@
         <v>9200</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>15097.2</v>
+        <v>15032.8</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2226.4</v>
+        <v>2162</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1743,10 +1743,10 @@
         <v>14400</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>20304</v>
+        <v>20275.2</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>2001.6</v>
+        <v>1972.8</v>
       </c>
       <c r="G28" s="26" t="inlineStr">
         <is>
@@ -3749,6 +3749,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -447,6 +447,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="13.5"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="15"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -30,7 +30,7 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="00000000"/>
+      <color rgb="00333333"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -43,37 +43,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F7A128"/>
+        <fgColor rgb="00FFC751"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2C300"/>
+        <fgColor rgb="00F0DC5A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008B8C90"/>
+        <fgColor rgb="00DCDCDC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000A1E9"/>
+        <fgColor rgb="005587F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DE3031"/>
+        <fgColor rgb="00FF7C9E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000B1CC"/>
+        <fgColor rgb="006EB5FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9501A"/>
+        <fgColor rgb="00FF8361"/>
       </patternFill>
     </fill>
   </fills>

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="13.5"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="13.5" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>141043.41</v>
+        <v>144837.41</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>141043.41</v>
+        <v>144837.41</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>5409.19</v>
@@ -614,42 +614,42 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B4" s="8" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.3481</v>
+        <v>1.6558</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2260.14</v>
+        <v>2068.76</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3286.92</v>
+        <v>3405.18</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>239.98</v>
+        <v>-20.18</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H4" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J4" s="11" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K4" s="11" t="inlineStr">
@@ -661,23 +661,23 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B5" s="8" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.656</v>
+        <v>1.4242</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2001.67</v>
+        <v>2300.33</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3274.73</v>
+        <v>3399.89</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>-40.07</v>
+        <v>123.73</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
       </c>
       <c r="H5" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I5" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J5" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K5" s="11" t="inlineStr">
@@ -708,42 +708,42 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B6" s="8" t="n">
-        <v>519671</v>
+        <v>501021</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>1.4223</v>
+        <v>1.3481</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>2224.19</v>
+        <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3249.54</v>
+        <v>3372.81</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>86.05</v>
+        <v>325.87</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I6" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J6" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K6" s="11" t="inlineStr">
@@ -765,13 +765,13 @@
         <v>0.9357</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>2919.29</v>
+        <v>3032.5</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2705.01</v>
+        <v>2831.75</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-26.68</v>
+        <v>-5.79</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         <v>70023</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>1.7845</v>
+        <v>1.7889</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>1126.01</v>
+        <v>1170.98</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2111.94</v>
+        <v>2221.11</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>102.54</v>
+        <v>126.31</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1101</v>
+        <v>2.1152</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>803.1</v>
+        <v>843.41</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1760.15</v>
+        <v>1866.38</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>65.52</v>
+        <v>82.41</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -896,23 +896,23 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>501029</v>
+        <v>968</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.9827</v>
+        <v>0.9587</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>550.4</v>
+        <v>623.23</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>515.12</v>
+        <v>601.04</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-25.77</v>
+        <v>3.52</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -921,17 +921,17 @@
       </c>
       <c r="H10" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I10" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J10" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K10" s="11" t="inlineStr">
@@ -943,23 +943,23 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B11" s="8" t="n">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>0.9576</v>
+        <v>0.9827</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>536.3099999999999</v>
+        <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>512.71</v>
+        <v>518.59</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-0.88</v>
+        <v>-22.3</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -968,17 +968,17 @@
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I11" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J11" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K11" s="11" t="inlineStr">
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>417.46</v>
+        <v>425.07</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>60.68</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>329.72</v>
+        <v>336.91</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>16.46</v>
+        <v>23.65</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>89.18000000000001</v>
+        <v>90.22</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-3.53</v>
+        <v>-2.49</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9072.02</v>
+        <v>9170.74</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2927.97</v>
+        <v>-2829.26</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8286.299999999999</v>
+        <v>8313.299999999999</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1976.4</v>
+        <v>2003.4</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36754.9</v>
+        <v>36809.5</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>5387.2</v>
+        <v>5441.8</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38200</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>205554.2</v>
+        <v>205286.8</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-8595</v>
+        <v>-8862.4</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24471.2</v>
+        <v>24640.2</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5171.4</v>
+        <v>-5002.4</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>30541.8</v>
+        <v>30639.9</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>4937.7</v>
+        <v>5035.8</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>25745.5</v>
+        <v>25404.5</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3887.4</v>
+        <v>-4228.4</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>15223.5</v>
+        <v>14908.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>2371.5</v>
+        <v>2056.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1648,23 +1648,23 @@
     <row r="26">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>中 小 板</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="B26" s="23" t="n">
-        <v>159902</v>
+        <v>159915</v>
       </c>
       <c r="C26" s="24" t="n">
-        <v>2.95</v>
+        <v>1.399</v>
       </c>
       <c r="D26" s="25" t="n">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>3681.6</v>
+        <v>15069.6</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>141.6</v>
+        <v>2198.8</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I26" s="26" t="inlineStr">
         <is>
-          <t>中小板</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J26" s="26" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K26" s="26" t="inlineStr">
@@ -1695,23 +1695,23 @@
     <row r="27">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>广发医药</t>
         </is>
       </c>
       <c r="B27" s="23" t="n">
-        <v>159915</v>
+        <v>159938</v>
       </c>
       <c r="C27" s="24" t="n">
-        <v>1.399</v>
+        <v>1.271</v>
       </c>
       <c r="D27" s="25" t="n">
-        <v>9200</v>
+        <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>15032.8</v>
+        <v>20174.4</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2162</v>
+        <v>1872</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1720,92 +1720,92 @@
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I27" s="26" t="inlineStr">
+        <is>
+          <t>全指医药</t>
+        </is>
+      </c>
+      <c r="J27" s="26" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K27" s="26" t="inlineStr">
+        <is>
+          <t>股票账户</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="27" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B28" s="28" t="n">
+        <v>478</v>
+      </c>
+      <c r="C28" s="29" t="n">
+        <v>1.9239</v>
+      </c>
+      <c r="D28" s="30" t="n">
+        <v>3813.64</v>
+      </c>
+      <c r="E28" s="30" t="n">
+        <v>7578.85</v>
+      </c>
+      <c r="F28" s="30" t="n">
+        <v>241.85</v>
+      </c>
+      <c r="G28" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H28" s="31" t="inlineStr">
+        <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I27" s="26" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="J27" s="26" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="K27" s="26" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="inlineStr">
-        <is>
-          <t>广发医药</t>
-        </is>
-      </c>
-      <c r="B28" s="23" t="n">
-        <v>159938</v>
-      </c>
-      <c r="C28" s="24" t="n">
-        <v>1.271</v>
-      </c>
-      <c r="D28" s="25" t="n">
-        <v>14400</v>
-      </c>
-      <c r="E28" s="25" t="n">
-        <v>20275.2</v>
-      </c>
-      <c r="F28" s="25" t="n">
-        <v>1972.8</v>
-      </c>
-      <c r="G28" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H28" s="26" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I28" s="26" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-      <c r="J28" s="26" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="K28" s="26" t="inlineStr">
-        <is>
-          <t>股票账户</t>
+      <c r="I28" s="31" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J28" s="31" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K28" s="31" t="inlineStr">
+        <is>
+          <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="27" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B29" s="28" t="n">
-        <v>478</v>
+        <v>1064</v>
       </c>
       <c r="C29" s="29" t="n">
-        <v>1.9239</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D29" s="30" t="n">
-        <v>3813.64</v>
+        <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>7502.57</v>
+        <v>5328.63</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>165.57</v>
+        <v>-7.37</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1814,17 +1814,17 @@
       </c>
       <c r="H29" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I29" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J29" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K29" s="31" t="inlineStr">
@@ -1836,23 +1836,23 @@
     <row r="30">
       <c r="A30" s="27" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B30" s="28" t="n">
-        <v>1064</v>
+        <v>968</v>
       </c>
       <c r="C30" s="29" t="n">
-        <v>0.5489000000000001</v>
+        <v>0.9444</v>
       </c>
       <c r="D30" s="30" t="n">
-        <v>9722</v>
+        <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>5271.27</v>
+        <v>4767.95</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>-64.73</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="I30" s="31" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J30" s="31" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K30" s="31" t="inlineStr">
@@ -1883,23 +1883,23 @@
     <row r="31">
       <c r="A31" s="27" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B31" s="28" t="n">
-        <v>968</v>
+        <v>1052</v>
       </c>
       <c r="C31" s="29" t="n">
-        <v>0.9444</v>
+        <v>0.5423</v>
       </c>
       <c r="D31" s="30" t="n">
-        <v>4943.96</v>
+        <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4726.43</v>
+        <v>4117.78</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>57.43</v>
+        <v>115.78</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1908,17 +1908,17 @@
       </c>
       <c r="H31" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
@@ -1930,23 +1930,23 @@
     <row r="32">
       <c r="A32" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B32" s="28" t="n">
-        <v>1052</v>
+        <v>4752</v>
       </c>
       <c r="C32" s="29" t="n">
-        <v>0.5423</v>
+        <v>0.7329</v>
       </c>
       <c r="D32" s="30" t="n">
-        <v>7379.54</v>
+        <v>4550.55</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4066.13</v>
+        <v>3457.51</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>64.13</v>
+        <v>122.51</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1955,17 +1955,17 @@
       </c>
       <c r="H32" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I32" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J32" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K32" s="31" t="inlineStr">
@@ -1977,23 +1977,23 @@
     <row r="33">
       <c r="A33" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B33" s="28" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C33" s="29" t="n">
-        <v>0.7329</v>
+        <v>1.0914</v>
       </c>
       <c r="D33" s="30" t="n">
-        <v>4550.55</v>
+        <v>3055.68</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3456.6</v>
+        <v>3419.31</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>121.6</v>
+        <v>84.31</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2002,17 +2002,17 @@
       </c>
       <c r="H33" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I33" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J33" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K33" s="31" t="inlineStr">
@@ -2024,23 +2024,23 @@
     <row r="34">
       <c r="A34" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B34" s="28" t="n">
-        <v>100032</v>
+        <v>110026</v>
       </c>
       <c r="C34" s="29" t="n">
-        <v>1.0914</v>
+        <v>1.6649</v>
       </c>
       <c r="D34" s="30" t="n">
-        <v>3055.68</v>
+        <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>3397.92</v>
+        <v>710.5599999999999</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>62.92</v>
+        <v>43.56</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2049,17 +2049,17 @@
       </c>
       <c r="H34" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I34" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J34" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K34" s="31" t="inlineStr">
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>700.88</v>
+        <v>710.16</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>33.88</v>
+        <v>43.16</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2118,23 +2118,23 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B36" s="28" t="n">
-        <v>110026</v>
+        <v>502010</v>
       </c>
       <c r="C36" s="29" t="n">
-        <v>1.6649</v>
+        <v>0.9949</v>
       </c>
       <c r="D36" s="30" t="n">
-        <v>400.63</v>
+        <v>281.57</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>700.3</v>
+        <v>284.92</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>33.3</v>
+        <v>4.78</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2143,17 +2143,17 @@
       </c>
       <c r="H36" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I36" s="31" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J36" s="31" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K36" s="31" t="inlineStr">
@@ -2165,42 +2165,42 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B37" s="28" t="n">
-        <v>502010</v>
+        <v>162411</v>
       </c>
       <c r="C37" s="29" t="n">
-        <v>0.9949</v>
+        <v>0.3775</v>
       </c>
       <c r="D37" s="30" t="n">
-        <v>281.57</v>
+        <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>280.98</v>
+        <v>2151.78</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>0.84</v>
+        <v>150.78</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H37" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I37" s="31" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J37" s="31" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K37" s="31" t="inlineStr">
@@ -2212,42 +2212,42 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B38" s="28" t="n">
-        <v>162411</v>
+        <v>164906</v>
       </c>
       <c r="C38" s="29" t="n">
-        <v>0.3776</v>
+        <v>1.1564</v>
       </c>
       <c r="D38" s="30" t="n">
-        <v>5299.96</v>
+        <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>2003.38</v>
+        <v>757.34</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>2.38</v>
+        <v>90.34</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H38" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I38" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J38" s="31" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K38" s="31" t="inlineStr">
@@ -2259,23 +2259,23 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B39" s="28" t="n">
-        <v>164906</v>
+        <v>71</v>
       </c>
       <c r="C39" s="29" t="n">
-        <v>1.1564</v>
+        <v>1.451</v>
       </c>
       <c r="D39" s="30" t="n">
-        <v>576.8</v>
+        <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>726.77</v>
+        <v>711.66</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>59.77</v>
+        <v>44.66</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2284,17 +2284,17 @@
       </c>
       <c r="H39" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I39" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J39" s="31" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K39" s="31" t="inlineStr">
@@ -2306,42 +2306,42 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B40" s="28" t="n">
-        <v>71</v>
+        <v>614</v>
       </c>
       <c r="C40" s="29" t="n">
-        <v>1.451</v>
+        <v>1.0903</v>
       </c>
       <c r="D40" s="30" t="n">
-        <v>459.67</v>
+        <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>698.38</v>
+        <v>742.05</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>31.38</v>
+        <v>75.05</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H40" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="I40" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J40" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>311</t>
         </is>
       </c>
       <c r="K40" s="31" t="inlineStr">
@@ -2353,70 +2353,70 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B41" s="28" t="n">
-        <v>614</v>
+        <v>478</v>
       </c>
       <c r="C41" s="29" t="n">
-        <v>1.0903</v>
+        <v>1.9107</v>
       </c>
       <c r="D41" s="30" t="n">
-        <v>611.75</v>
+        <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>728.59</v>
+        <v>2080.17</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>61.59</v>
+        <v>80.17</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H41" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I41" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J41" s="31" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K41" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 S 定投</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B42" s="28" t="n">
-        <v>478</v>
+        <v>100032</v>
       </c>
       <c r="C42" s="29" t="n">
-        <v>1.9107</v>
+        <v>1.0954</v>
       </c>
       <c r="D42" s="30" t="n">
-        <v>1046.73</v>
+        <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2059.23</v>
+        <v>2043.18</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>59.23</v>
+        <v>43.18</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2425,17 +2425,17 @@
       </c>
       <c r="H42" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I42" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J42" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K42" s="31" t="inlineStr">
@@ -2447,23 +2447,23 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B43" s="28" t="n">
-        <v>100032</v>
+        <v>1051</v>
       </c>
       <c r="C43" s="29" t="n">
-        <v>1.0954</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D43" s="30" t="n">
-        <v>1825.9</v>
+        <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>2030.4</v>
+        <v>1101.54</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>30.4</v>
+        <v>101.54</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2472,17 +2472,17 @@
       </c>
       <c r="H43" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I43" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J43" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K43" s="31" t="inlineStr">
@@ -2494,23 +2494,23 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B44" s="28" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C44" s="29" t="n">
-        <v>0.9441000000000001</v>
+        <v>0.5517</v>
       </c>
       <c r="D44" s="30" t="n">
-        <v>1059.17</v>
+        <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1088.83</v>
+        <v>1011.49</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>88.83</v>
+        <v>11.49</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="H44" s="31" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I44" s="31" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J44" s="31" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K44" s="31" t="inlineStr">
@@ -2541,23 +2541,23 @@
     <row r="45">
       <c r="A45" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B45" s="28" t="n">
-        <v>1052</v>
+        <v>4752</v>
       </c>
       <c r="C45" s="29" t="n">
-        <v>0.5517</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D45" s="30" t="n">
-        <v>1812.7</v>
+        <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>998.8</v>
+        <v>932.3</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-1.2</v>
+        <v>-67.7</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2566,17 +2566,17 @@
       </c>
       <c r="H45" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I45" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J45" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K45" s="31" t="inlineStr">
@@ -2588,42 +2588,42 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>4752</v>
+        <v>216</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.0902</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>1227.03</v>
+        <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>932.05</v>
+        <v>2289.42</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>-67.95</v>
+        <v>289.42</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2635,42 +2635,42 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>216</v>
+        <v>164906</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>1.0902</v>
+        <v>1.1113</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>1834.47</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>2304.64</v>
+        <v>1181.46</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>304.64</v>
+        <v>181.46</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2682,23 +2682,23 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>164906</v>
+        <v>71</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.1113</v>
+        <v>1.4513</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1133.77</v>
+        <v>1066.74</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>133.77</v>
+        <v>66.73999999999999</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2729,42 +2729,42 @@
     <row r="49">
       <c r="A49" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B49" s="28" t="n">
-        <v>71</v>
+        <v>162411</v>
       </c>
       <c r="C49" s="29" t="n">
-        <v>1.4513</v>
+        <v>0.4204</v>
       </c>
       <c r="D49" s="30" t="n">
-        <v>689.02</v>
+        <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1046.83</v>
+        <v>1931.71</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>46.83</v>
+        <v>-68.29000000000001</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H49" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I49" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J49" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K49" s="31" t="inlineStr">
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1136.17</v>
+        <v>1157.15</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>136.17</v>
+        <v>157.15</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2821,72 +2821,72 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="27" t="inlineStr">
-        <is>
-          <t>华宝标普石油指数</t>
-        </is>
-      </c>
-      <c r="B51" s="28" t="n">
-        <v>162411</v>
-      </c>
-      <c r="C51" s="29" t="n">
-        <v>0.4537</v>
-      </c>
-      <c r="D51" s="30" t="n">
-        <v>2204.19</v>
-      </c>
-      <c r="E51" s="30" t="n">
-        <v>833.1799999999999</v>
-      </c>
-      <c r="F51" s="30" t="n">
-        <v>-166.82</v>
-      </c>
-      <c r="G51" s="31" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="H51" s="31" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
-      </c>
-      <c r="I51" s="31" t="inlineStr">
-        <is>
-          <t>原油</t>
-        </is>
-      </c>
-      <c r="J51" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K51" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
+      <c r="A51" s="32" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="B51" s="33" t="n">
+        <v>100032</v>
+      </c>
+      <c r="C51" s="34" t="n">
+        <v>1.0193</v>
+      </c>
+      <c r="D51" s="35" t="n">
+        <v>65064.33</v>
+      </c>
+      <c r="E51" s="35" t="n">
+        <v>72806.98</v>
+      </c>
+      <c r="F51" s="35" t="n">
+        <v>6486.98</v>
+      </c>
+      <c r="G51" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H51" s="36" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="I51" s="36" t="inlineStr">
+        <is>
+          <t>中证红利</t>
+        </is>
+      </c>
+      <c r="J51" s="36" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K51" s="36" t="inlineStr">
+        <is>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B52" s="33" t="n">
-        <v>100032</v>
+        <v>968</v>
       </c>
       <c r="C52" s="34" t="n">
-        <v>1.0193</v>
+        <v>0.9167</v>
       </c>
       <c r="D52" s="35" t="n">
-        <v>65064.33</v>
+        <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>72351.53</v>
+        <v>61229.75</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>6031.53</v>
+        <v>3029.75</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="H52" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I52" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J52" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K52" s="36" t="inlineStr">
@@ -2917,42 +2917,42 @@
     <row r="53">
       <c r="A53" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B53" s="33" t="n">
-        <v>968</v>
+        <v>340001</v>
       </c>
       <c r="C53" s="34" t="n">
-        <v>0.9167</v>
+        <v>0.9886</v>
       </c>
       <c r="D53" s="35" t="n">
-        <v>63490</v>
+        <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>60696.44</v>
+        <v>37465.37</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>2496.44</v>
+        <v>5465.37</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H53" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I53" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J53" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K53" s="36" t="inlineStr">
@@ -2964,42 +2964,42 @@
     <row r="54">
       <c r="A54" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B54" s="33" t="n">
-        <v>340001</v>
+        <v>1180</v>
       </c>
       <c r="C54" s="34" t="n">
-        <v>0.9886</v>
+        <v>0.7451</v>
       </c>
       <c r="D54" s="35" t="n">
-        <v>32370.29</v>
+        <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>37125.48</v>
+        <v>36027.47</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5125.48</v>
+        <v>5467.47</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H54" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I54" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J54" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K54" s="36" t="inlineStr">
@@ -3011,42 +3011,42 @@
     <row r="55">
       <c r="A55" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B55" s="33" t="n">
-        <v>1180</v>
+        <v>110027</v>
       </c>
       <c r="C55" s="34" t="n">
-        <v>0.7451</v>
+        <v>1.5931</v>
       </c>
       <c r="D55" s="35" t="n">
-        <v>41014.88</v>
+        <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>35596.81</v>
+        <v>34046.83</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>5036.81</v>
+        <v>2046.83</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H55" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I55" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J55" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K55" s="36" t="inlineStr">
@@ -3058,42 +3058,42 @@
     <row r="56">
       <c r="A56" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B56" s="33" t="n">
-        <v>110027</v>
+        <v>614</v>
       </c>
       <c r="C56" s="34" t="n">
-        <v>1.5931</v>
+        <v>1.091</v>
       </c>
       <c r="D56" s="35" t="n">
-        <v>20086.63</v>
+        <v>20716.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>33765.62</v>
+        <v>25129.27</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>1765.62</v>
+        <v>2529.27</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H56" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="I56" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J56" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>311</t>
         </is>
       </c>
       <c r="K56" s="36" t="inlineStr">
@@ -3105,42 +3105,42 @@
     <row r="57">
       <c r="A57" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B57" s="33" t="n">
-        <v>614</v>
+        <v>100038</v>
       </c>
       <c r="C57" s="34" t="n">
-        <v>1.091</v>
+        <v>1.3129</v>
       </c>
       <c r="D57" s="35" t="n">
-        <v>20716.63</v>
+        <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24673.5</v>
+        <v>24423.09</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>2073.5</v>
+        <v>5223.09</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H57" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I57" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J57" s="36" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K57" s="36" t="inlineStr">
@@ -3152,23 +3152,23 @@
     <row r="58">
       <c r="A58" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B58" s="33" t="n">
-        <v>100038</v>
+        <v>1469</v>
       </c>
       <c r="C58" s="34" t="n">
-        <v>1.3129</v>
+        <v>0.9073</v>
       </c>
       <c r="D58" s="35" t="n">
-        <v>14624.61</v>
+        <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>24130.6</v>
+        <v>23832.7</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>4930.6</v>
+        <v>4632.7</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3177,17 +3177,17 @@
       </c>
       <c r="H58" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I58" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J58" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K58" s="36" t="inlineStr">
@@ -3199,42 +3199,42 @@
     <row r="59">
       <c r="A59" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B59" s="33" t="n">
-        <v>1469</v>
+        <v>164906</v>
       </c>
       <c r="C59" s="34" t="n">
-        <v>0.9073</v>
+        <v>1.1444</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>21163.93</v>
+        <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>23538.52</v>
+        <v>22030.13</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4338.52</v>
+        <v>2830.13</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H59" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I59" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J59" s="36" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K59" s="36" t="inlineStr">
@@ -3246,42 +3246,42 @@
     <row r="60">
       <c r="A60" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B60" s="33" t="n">
-        <v>164906</v>
+        <v>161017</v>
       </c>
       <c r="C60" s="34" t="n">
-        <v>1.1444</v>
+        <v>1.3432</v>
       </c>
       <c r="D60" s="35" t="n">
-        <v>16778.47</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>21140.87</v>
+        <v>15505</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>1940.87</v>
+        <v>2705</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H60" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I60" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J60" s="36" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K60" s="36" t="inlineStr">
@@ -3293,42 +3293,42 @@
     <row r="61">
       <c r="A61" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B61" s="33" t="n">
-        <v>161017</v>
+        <v>162411</v>
       </c>
       <c r="C61" s="34" t="n">
-        <v>1.3432</v>
+        <v>0.5152</v>
       </c>
       <c r="D61" s="35" t="n">
-        <v>9529.809999999999</v>
+        <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>15342.99</v>
+        <v>15130.58</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>2542.99</v>
+        <v>-4069.42</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H61" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I61" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J61" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K61" s="36" t="inlineStr">
@@ -3340,42 +3340,42 @@
     <row r="62">
       <c r="A62" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B62" s="33" t="n">
-        <v>162411</v>
+        <v>71</v>
       </c>
       <c r="C62" s="34" t="n">
-        <v>0.5152</v>
+        <v>1.4562</v>
       </c>
       <c r="D62" s="35" t="n">
-        <v>37267.45</v>
+        <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>14087.09</v>
+        <v>10525.46</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>-5112.91</v>
+        <v>625.46</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H62" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I62" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J62" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K62" s="36" t="inlineStr">
@@ -3387,42 +3387,42 @@
     <row r="63">
       <c r="A63" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B63" s="33" t="n">
-        <v>71</v>
+        <v>110026</v>
       </c>
       <c r="C63" s="34" t="n">
-        <v>1.4562</v>
+        <v>1.3359</v>
       </c>
       <c r="D63" s="35" t="n">
-        <v>6798.52</v>
+        <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>10328.99</v>
+        <v>8497.540000000001</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>428.99</v>
+        <v>2097.54</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H63" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I63" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J63" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K63" s="36" t="inlineStr">
@@ -3434,42 +3434,42 @@
     <row r="64">
       <c r="A64" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B64" s="33" t="n">
-        <v>110026</v>
+        <v>1061</v>
       </c>
       <c r="C64" s="34" t="n">
-        <v>1.3359</v>
+        <v>0.9172</v>
       </c>
       <c r="D64" s="35" t="n">
-        <v>4791.13</v>
+        <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>8374.889999999999</v>
+        <v>7561.99</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>1974.89</v>
+        <v>2416.87</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H64" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="I64" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="J64" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K64" s="36" t="inlineStr">
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>0.9172</v>
+        <v>0.4775</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>5609.79</v>
+        <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7567.6</v>
+        <v>7346.68</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>2422.48</v>
+        <v>946.6799999999999</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,42 +3528,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7267.6</v>
+        <v>7281.02</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>867.6</v>
+        <v>881.02</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3575,42 +3575,42 @@
     <row r="67">
       <c r="A67" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证500ETF联接C</t>
         </is>
       </c>
       <c r="B67" s="33" t="n">
-        <v>519977</v>
+        <v>2903</v>
       </c>
       <c r="C67" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.9</v>
       </c>
       <c r="D67" s="35" t="n">
-        <v>5328.62</v>
+        <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7206.42</v>
+        <v>6854.53</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>806.42</v>
+        <v>-145.47</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H67" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I67" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J67" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K67" s="36" t="inlineStr">
@@ -3622,23 +3622,23 @@
     <row r="68">
       <c r="A68" s="32" t="inlineStr">
         <is>
-          <t>广发中证500ETF联接C</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B68" s="33" t="n">
-        <v>2903</v>
+        <v>4752</v>
       </c>
       <c r="C68" s="34" t="n">
-        <v>0.9</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D68" s="35" t="n">
-        <v>7778.64</v>
+        <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6777.52</v>
+        <v>5966.7</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-222.48</v>
+        <v>-433.3</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3647,17 +3647,17 @@
       </c>
       <c r="H68" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I68" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J68" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K68" s="36" t="inlineStr">
@@ -3669,23 +3669,23 @@
     <row r="69">
       <c r="A69" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
       <c r="B69" s="33" t="n">
-        <v>4752</v>
+        <v>3647</v>
       </c>
       <c r="C69" s="34" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.9776</v>
       </c>
       <c r="D69" s="35" t="n">
-        <v>7852.99</v>
+        <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>5965.13</v>
+        <v>3433.41</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-434.87</v>
+        <v>-66.59</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3694,17 +3694,17 @@
       </c>
       <c r="H69" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I69" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="J69" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K69" s="36" t="inlineStr">
@@ -3713,54 +3713,7 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="32" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="B70" s="33" t="n">
-        <v>3647</v>
-      </c>
-      <c r="C70" s="34" t="n">
-        <v>0.9776</v>
-      </c>
-      <c r="D70" s="35" t="n">
-        <v>3580.2</v>
-      </c>
-      <c r="E70" s="35" t="n">
-        <v>3406.56</v>
-      </c>
-      <c r="F70" s="35" t="n">
-        <v>-93.44</v>
-      </c>
-      <c r="G70" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H70" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I70" s="36" t="inlineStr">
-        <is>
-          <t>中证1000</t>
-        </is>
-      </c>
-      <c r="J70" s="36" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="K70" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,7 +58,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005587F0"/>
+        <fgColor rgb="00DBB6AC"/>
       </patternFill>
     </fill>
     <fill>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="11.25" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="13.5"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -614,23 +614,23 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B4" s="8" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6558</v>
+        <v>1.4242</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2068.76</v>
+        <v>2300.33</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3405.18</v>
+        <v>3392.99</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-20.18</v>
+        <v>116.83</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
       </c>
       <c r="H4" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J4" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K4" s="11" t="inlineStr">
@@ -661,23 +661,23 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B5" s="8" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4242</v>
+        <v>1.6558</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2300.33</v>
+        <v>2068.76</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3399.89</v>
+        <v>3382.42</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>123.73</v>
+        <v>-42.94</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
       </c>
       <c r="H5" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I5" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J5" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K5" s="11" t="inlineStr">
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3372.81</v>
+        <v>3349.75</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>325.87</v>
+        <v>302.81</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>3032.5</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2831.75</v>
+        <v>2807.19</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-5.79</v>
+        <v>-30.35</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1170.98</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2221.11</v>
+        <v>2206.83</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>126.31</v>
+        <v>112.03</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>843.41</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1866.38</v>
+        <v>1854.66</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>82.41</v>
+        <v>70.69</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>623.23</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>601.04</v>
+        <v>597.86</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>3.52</v>
+        <v>0.34</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>518.59</v>
+        <v>516.39</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-22.3</v>
+        <v>-24.5</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>425.07</v>
+        <v>422.84</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>68.29000000000001</v>
+        <v>66.06</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>336.91</v>
+        <v>335.42</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>23.65</v>
+        <v>22.16</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>90.22</v>
+        <v>90.08</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-2.49</v>
+        <v>-2.63</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9170.74</v>
+        <v>9155.68</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2829.26</v>
+        <v>-2844.32</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7578.85</v>
+        <v>7502.19</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>241.85</v>
+        <v>165.19</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5328.63</v>
+        <v>5319.88</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-7.37</v>
+        <v>-16.12</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4767.95</v>
+        <v>4742.74</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>98.95999999999999</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4117.78</v>
+        <v>4073.51</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>115.78</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>4550.55</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>3457.51</v>
+        <v>3408.82</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>122.51</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>3055.68</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3419.31</v>
+        <v>3400.97</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>84.31</v>
+        <v>65.97</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>710.5599999999999</v>
+        <v>706.47</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>43.56</v>
+        <v>39.47</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>710.16</v>
+        <v>706.04</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>43.16</v>
+        <v>39.04</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>281.57</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>284.92</v>
+        <v>282.13</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>4.78</v>
+        <v>1.99</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>757.34</v>
+        <v>753.3</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>90.34</v>
+        <v>86.3</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>711.66</v>
+        <v>709.6799999999999</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>44.66</v>
+        <v>42.68</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>742.05</v>
+        <v>740.83</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>75.05</v>
+        <v>73.83</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2080.17</v>
+        <v>2059.13</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>80.17</v>
+        <v>59.13</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2043.18</v>
+        <v>2032.23</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>43.18</v>
+        <v>32.23</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1101.54</v>
+        <v>1098.36</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>101.54</v>
+        <v>98.36</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1011.49</v>
+        <v>1000.61</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>11.49</v>
+        <v>0.61</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>932.3</v>
+        <v>919.17</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-67.7</v>
+        <v>-80.83</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2289.42</v>
+        <v>2256.21</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>289.42</v>
+        <v>256.21</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1181.46</v>
+        <v>1175.16</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>181.46</v>
+        <v>175.16</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1066.74</v>
+        <v>1063.78</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>66.73999999999999</v>
+        <v>63.78</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1157.15</v>
+        <v>1155.25</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>157.15</v>
+        <v>155.25</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>72806.98</v>
+        <v>72416.59</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>6486.98</v>
+        <v>6096.59</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>61229.75</v>
+        <v>60905.95</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>3029.75</v>
+        <v>2705.95</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37465.37</v>
+        <v>37397.39</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5465.37</v>
+        <v>5397.39</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>36027.47</v>
+        <v>35855.2</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5467.47</v>
+        <v>5295.2</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>34046.83</v>
+        <v>34006.66</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>2046.83</v>
+        <v>2006.66</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20716.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>25129.27</v>
+        <v>25087.83</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2529.27</v>
+        <v>2487.83</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24423.09</v>
+        <v>24306.1</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>5223.09</v>
+        <v>5106.1</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23832.7</v>
+        <v>23769.2</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>4632.7</v>
+        <v>4569.2</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>22030.13</v>
+        <v>21912.68</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2830.13</v>
+        <v>2712.68</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15505</v>
+        <v>15352.52</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2705</v>
+        <v>2552.52</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10525.46</v>
+        <v>10496.23</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>625.46</v>
+        <v>596.23</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8497.540000000001</v>
+        <v>8448.67</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>2097.54</v>
+        <v>2048.67</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7561.99</v>
+        <v>7556.38</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2416.87</v>
+        <v>2411.26</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7346.68</v>
+        <v>7334.62</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>946.6799999999999</v>
+        <v>934.62</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7281.02</v>
+        <v>7268.77</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>881.02</v>
+        <v>868.77</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6854.53</v>
+        <v>6789.97</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-145.47</v>
+        <v>-210.03</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>5966.7</v>
+        <v>5882.67</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-433.3</v>
+        <v>-517.33</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3433.41</v>
+        <v>3402.62</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-66.59</v>
+        <v>-97.38</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3714,6 +3714,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="13.5"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="13.5" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -574,16 +574,16 @@
         <v>999991</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.1342</v>
+        <v>1.1254</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>100000</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>111342</v>
+        <v>112542</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>11342</v>
+        <v>12542</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -3714,6 +3714,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="11.25" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="13.5"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -614,23 +614,23 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B4" s="8" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.4242</v>
+        <v>1.6558</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2300.33</v>
+        <v>2068.76</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3392.99</v>
+        <v>3388.63</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>116.83</v>
+        <v>-36.73</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
       </c>
       <c r="H4" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J4" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K4" s="11" t="inlineStr">
@@ -661,23 +661,23 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B5" s="8" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.6558</v>
+        <v>1.4242</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2068.76</v>
+        <v>2300.33</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3392.77</v>
+        <v>3369.98</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>-32.59</v>
+        <v>93.81999999999999</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
       </c>
       <c r="H5" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I5" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J5" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K5" s="11" t="inlineStr">
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3374.16</v>
+        <v>3359.47</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>327.22</v>
+        <v>312.53</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>3032.5</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2822.65</v>
+        <v>2816.28</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-14.89</v>
+        <v>-21.26</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1170.98</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2216.2</v>
+        <v>2210.69</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>121.4</v>
+        <v>115.89</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>843.41</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1861.24</v>
+        <v>1857.53</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>77.27</v>
+        <v>73.56</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>623.23</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>603.04</v>
+        <v>604.03</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>5.52</v>
+        <v>6.51</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>518.04</v>
+        <v>516.9400000000001</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-22.85</v>
+        <v>-23.95</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>427.84</v>
+        <v>426.03</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>71.06</v>
+        <v>69.25</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>336.91</v>
+        <v>335.42</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>23.65</v>
+        <v>22.16</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>90.04000000000001</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-2.67</v>
+        <v>-3.25</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9160.700000000001</v>
+        <v>9135.6</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2839.3</v>
+        <v>-2864.39</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8334.9</v>
+        <v>8262</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>2025</v>
+        <v>1952.1</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>37009.7</v>
+        <v>36709.4</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>5642</v>
+        <v>5341.7</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38200</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>207769.8</v>
+        <v>205859.8</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-6379.4</v>
+        <v>-8289.4</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24707.8</v>
+        <v>24640.2</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-4934.8</v>
+        <v>-5002.4</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>30836.1</v>
+        <v>30345.6</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>5232</v>
+        <v>4741.5</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>25916</v>
+        <v>25711.4</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3716.9</v>
+        <v>-3921.5</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14683.5</v>
+        <v>14710.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1831.5</v>
+        <v>1858.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15235.2</v>
+        <v>15134</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2364.4</v>
+        <v>2263.2</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>20404.8</v>
+        <v>20347.2</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2102.4</v>
+        <v>2044.8</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7543.76</v>
+        <v>7520.5</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>206.76</v>
+        <v>183.5</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5322.8</v>
+        <v>5308.21</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-13.21</v>
+        <v>-27.79</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4783.78</v>
+        <v>4791.69</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>114.78</v>
+        <v>122.69</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4103.02</v>
+        <v>4088.27</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>101.02</v>
+        <v>86.27</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>4550.55</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>3439.31</v>
+        <v>3445.68</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>104.31</v>
+        <v>110.68</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>3055.68</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3410.14</v>
+        <v>3397.92</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>75.14</v>
+        <v>62.92</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>711.36</v>
+        <v>709.6</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>44.36</v>
+        <v>42.6</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>710.8200000000001</v>
+        <v>708.98</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>43.82</v>
+        <v>41.98</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>281.57</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>283.54</v>
+        <v>279.99</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>3.4</v>
+        <v>-0.15</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>2082.88</v>
+        <v>2119.98</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>81.88</v>
+        <v>118.98</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>746.96</v>
+        <v>764.84</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>79.95999999999999</v>
+        <v>97.84</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>713.41</v>
+        <v>708.08</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>46.41</v>
+        <v>41.08</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>735.9400000000001</v>
+        <v>740.83</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>68.94</v>
+        <v>73.83</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2070.54</v>
+        <v>2064.15</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>70.54000000000001</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2037.7</v>
+        <v>2030.4</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>37.7</v>
+        <v>30.4</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1098.36</v>
+        <v>1092</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>98.36</v>
+        <v>92</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1007.86</v>
+        <v>1004.24</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>7.86</v>
+        <v>4.24</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>927.39</v>
+        <v>929.11</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-72.61</v>
+        <v>-70.89</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2588,42 +2588,42 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>216</v>
+        <v>164906</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>1.0902</v>
+        <v>1.1113</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>1834.47</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2255.11</v>
+        <v>1193.16</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>255.11</v>
+        <v>193.16</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2635,23 +2635,23 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>164906</v>
+        <v>71</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>1.1113</v>
+        <v>1.4513</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>689.02</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1165.27</v>
+        <v>1061.37</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>165.27</v>
+        <v>61.37</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2660,17 +2660,17 @@
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2682,42 +2682,42 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.4513</v>
+        <v>1.0902</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>689.02</v>
+        <v>1834.47</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1069.36</v>
+        <v>2224.66</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>69.36</v>
+        <v>224.66</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2742,10 +2742,10 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1869.85</v>
+        <v>1903.16</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-130.15</v>
+        <v>-96.84</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1147.61</v>
+        <v>1155.25</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>147.61</v>
+        <v>155.25</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>72611.78999999999</v>
+        <v>72351.53</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>6291.79</v>
+        <v>6031.53</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>61432.92</v>
+        <v>61534.5</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>3232.92</v>
+        <v>3334.5</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37517.16</v>
+        <v>37523.64</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5517.16</v>
+        <v>5523.64</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>36183.32</v>
+        <v>36076.68</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5623.32</v>
+        <v>5516.68</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>34026.75</v>
+        <v>33966.49</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>2026.75</v>
+        <v>1966.49</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24349.97</v>
+        <v>24218.35</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>5149.97</v>
+        <v>5018.35</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23781.9</v>
+        <v>23549.1</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>4581.9</v>
+        <v>4349.1</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>21728.11</v>
+        <v>22248.25</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2528.11</v>
+        <v>3048.25</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15438.29</v>
+        <v>15342.99</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2638.29</v>
+        <v>2542.99</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>14646.1</v>
+        <v>14906.98</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-4553.9</v>
+        <v>-4293.02</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10551.3</v>
+        <v>10472.44</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>651.3</v>
+        <v>572.4400000000001</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8507.129999999999</v>
+        <v>8486.040000000001</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>2107.13</v>
+        <v>2086.04</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7528.33</v>
+        <v>7522.72</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2383.21</v>
+        <v>2377.6</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7338.64</v>
+        <v>7318.54</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>938.64</v>
+        <v>918.54</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7278.89</v>
+        <v>7273.03</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>878.89</v>
+        <v>873.03</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6832.75</v>
+        <v>6809.42</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-167.25</v>
+        <v>-190.58</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>5935.28</v>
+        <v>5946.28</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-464.72</v>
+        <v>-453.72</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3420.88</v>
+        <v>3415.15</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-79.12</v>
+        <v>-84.84999999999999</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3714,6 +3714,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6558</v>
+        <v>1.6544</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2068.76</v>
+        <v>2139.86</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3388.63</v>
+        <v>3406.66</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-36.73</v>
+        <v>-133.59</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4242</v>
+        <v>1.425</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2300.33</v>
+        <v>2381.52</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3369.98</v>
+        <v>3400.81</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>93.81999999999999</v>
+        <v>7.19</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3359.47</v>
+        <v>3238.55</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>312.53</v>
+        <v>191.61</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -762,16 +762,16 @@
         <v>3318</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0.9357</v>
+        <v>0.9348</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>3032.5</v>
+        <v>3153.28</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2816.28</v>
+        <v>2850.57</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-21.26</v>
+        <v>-97.09999999999999</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         <v>70023</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>1.7889</v>
+        <v>1.7912</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>1170.98</v>
+        <v>1219.16</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2210.69</v>
+        <v>2231.18</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>115.89</v>
+        <v>47.39</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1152</v>
+        <v>2.1171</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>843.41</v>
+        <v>886.95</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1857.53</v>
+        <v>1888.94</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>73.56</v>
+        <v>11.21</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>968</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.9587</v>
+        <v>0.9583</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>623.23</v>
+        <v>712.84</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>604.03</v>
+        <v>681.12</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>6.51</v>
+        <v>-1.97</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>516.9400000000001</v>
+        <v>503.45</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-23.95</v>
+        <v>-37.44</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>426.03</v>
+        <v>421.51</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>69.25</v>
+        <v>64.73</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>335.42</v>
+        <v>326</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>22.16</v>
+        <v>12.74</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>89.45999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-3.25</v>
+        <v>-5.52</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9135.6</v>
+        <v>8874.58</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2864.39</v>
+        <v>-3125.41</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8262</v>
+        <v>8172.9</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1952.1</v>
+        <v>1863</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36709.4</v>
+        <v>36136.1</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>5341.7</v>
+        <v>4768.4</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1420,16 +1420,16 @@
         <v>510500</v>
       </c>
       <c r="C21" s="24" t="n">
-        <v>5.606</v>
+        <v>5.601</v>
       </c>
       <c r="D21" s="25" t="n">
-        <v>38200</v>
+        <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>205859.8</v>
+        <v>205096.8</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-8289.4</v>
+        <v>-12222</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24640.2</v>
+        <v>23930.4</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5002.4</v>
+        <v>-5712.2</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>30345.6</v>
+        <v>29658.9</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>4741.5</v>
+        <v>4054.8</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>25711.4</v>
+        <v>25336.3</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3921.5</v>
+        <v>-4296.6</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15134</v>
+        <v>14913.2</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2263.2</v>
+        <v>2042.4</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>20347.2</v>
+        <v>20188.8</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2044.8</v>
+        <v>1886.4</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7520.5</v>
+        <v>7334.01</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>183.5</v>
+        <v>-2.99</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5308.21</v>
+        <v>5156.55</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-27.79</v>
+        <v>-179.45</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4791.69</v>
+        <v>4723.95</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>122.69</v>
+        <v>54.95</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4088.27</v>
+        <v>3992.33</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>86.27</v>
+        <v>-9.67</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>4550.55</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>3445.68</v>
+        <v>3378.78</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>110.68</v>
+        <v>43.78</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>3055.68</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3397.92</v>
+        <v>3309.3</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>62.92</v>
+        <v>-25.7</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>709.6</v>
+        <v>695.17</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>42.6</v>
+        <v>28.17</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>708.98</v>
+        <v>694.63</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>41.98</v>
+        <v>27.63</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>281.57</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>279.99</v>
+        <v>270.59</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-0.15</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>2119.98</v>
+        <v>2040.48</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>118.98</v>
+        <v>39.48</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>764.84</v>
+        <v>731.96</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>97.84</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>708.08</v>
+        <v>676.22</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>41.08</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>740.83</v>
+        <v>731.04</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>73.83</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2064.15</v>
+        <v>2012.97</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>64.15000000000001</v>
+        <v>12.97</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2030.4</v>
+        <v>1977.45</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>30.4</v>
+        <v>-22.55</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1092</v>
+        <v>1071.88</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>92</v>
+        <v>71.88</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1004.24</v>
+        <v>980.67</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>4.24</v>
+        <v>-19.33</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>929.11</v>
+        <v>911.0700000000001</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-70.89</v>
+        <v>-88.93000000000001</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2588,42 +2588,42 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>164906</v>
+        <v>216</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>1.1113</v>
+        <v>1.0902</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>1193.16</v>
+        <v>2222.64</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>193.16</v>
+        <v>222.64</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2635,23 +2635,23 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1061.37</v>
+        <v>1141.87</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>61.37</v>
+        <v>141.87</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2660,17 +2660,17 @@
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2682,42 +2682,42 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.0902</v>
+        <v>1.4513</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>1834.47</v>
+        <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>2224.66</v>
+        <v>1013.62</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>224.66</v>
+        <v>13.62</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2742,10 +2742,10 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1903.16</v>
+        <v>1831.79</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-96.84</v>
+        <v>-168.21</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1155.25</v>
+        <v>1139.98</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>155.25</v>
+        <v>139.98</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>72351.53</v>
+        <v>70464.66</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>6031.53</v>
+        <v>4144.66</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>61534.5</v>
+        <v>60664.69</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>3334.5</v>
+        <v>2464.69</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37523.64</v>
+        <v>37021.9</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5523.64</v>
+        <v>5021.9</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>36076.68</v>
+        <v>35699.35</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5516.68</v>
+        <v>5139.35</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>33966.49</v>
+        <v>33805.79</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>1966.49</v>
+        <v>1805.79</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20716.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>24922.1</v>
+        <v>24756.37</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2322.1</v>
+        <v>2156.37</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24218.35</v>
+        <v>23721.11</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>5018.35</v>
+        <v>4521.11</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23549.1</v>
+        <v>22941.7</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>4349.1</v>
+        <v>3741.7</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>22248.25</v>
+        <v>21291.87</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3048.25</v>
+        <v>2091.87</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15342.99</v>
+        <v>15018.98</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2542.99</v>
+        <v>2218.98</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>14906.98</v>
+        <v>14347.96</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-4293.02</v>
+        <v>-4852.04</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10472.44</v>
+        <v>10001.3</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>572.4400000000001</v>
+        <v>101.3</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8486.040000000001</v>
+        <v>8313.559999999999</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>2086.04</v>
+        <v>1913.56</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7522.72</v>
+        <v>7517.11</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2377.6</v>
+        <v>2371.99</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7318.54</v>
+        <v>7230.4</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>918.54</v>
+        <v>830.4</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,42 +3528,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7273.03</v>
+        <v>7109.43</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>873.03</v>
+        <v>709.4299999999999</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6809.42</v>
+        <v>6657.73</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-190.58</v>
+        <v>-342.27</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>5946.28</v>
+        <v>5830.84</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-453.72</v>
+        <v>-569.16</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3415.15</v>
+        <v>3318.12</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-84.84999999999999</v>
+        <v>-181.88</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="13.5"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="13.5" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3714,6 +3714,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="11.25" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="13.5"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -627,10 +627,10 @@
         <v>2139.86</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3406.66</v>
+        <v>3588.93</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-133.59</v>
+        <v>-67.26000000000001</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>2381.52</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3400.81</v>
+        <v>3568.34</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>7.19</v>
+        <v>57.2</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3238.55</v>
+        <v>3317.89</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>191.61</v>
+        <v>270.95</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>3153.28</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2850.57</v>
+        <v>3020.05</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-97.09999999999999</v>
+        <v>-37.51</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1219.16</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2231.18</v>
+        <v>2364.49</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>47.39</v>
+        <v>91.41</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>886.95</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1888.94</v>
+        <v>2018.65</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>11.21</v>
+        <v>45.89</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>712.84</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>681.12</v>
+        <v>782.7</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-1.97</v>
+        <v>16.13</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>503.45</v>
+        <v>515.89</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-37.44</v>
+        <v>-25</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>421.51</v>
+        <v>431.56</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>64.73</v>
+        <v>74.78</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>326</v>
+        <v>332.2</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>12.74</v>
+        <v>18.94</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>87.19</v>
+        <v>88.39</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5.52</v>
+        <v>-4.32</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>8874.58</v>
+        <v>9083.73</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-3125.41</v>
+        <v>-2916.26</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8172.9</v>
+        <v>8224.200000000001</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1863</v>
+        <v>1914.3</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36136.1</v>
+        <v>36500.1</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>4768.4</v>
+        <v>5132.4</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>205096.8</v>
+        <v>208394.8</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-12222</v>
+        <v>-8924</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>23930.4</v>
+        <v>24369.8</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5712.2</v>
+        <v>-5272.8</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29658.9</v>
+        <v>29887.8</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>4054.8</v>
+        <v>4283.7</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>25336.3</v>
+        <v>26393.4</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-4296.6</v>
+        <v>-3239.5</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14710.5</v>
+        <v>14805</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1858.5</v>
+        <v>1953</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14913.2</v>
+        <v>15327.2</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2042.4</v>
+        <v>2456.4</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>20188.8</v>
+        <v>20635.2</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>1886.4</v>
+        <v>2332.8</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7334.01</v>
+        <v>7486.18</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>-2.99</v>
+        <v>149.18</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5156.55</v>
+        <v>5278.07</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-179.45</v>
+        <v>-57.93</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4723.95</v>
+        <v>4849.53</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>54.95</v>
+        <v>180.53</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>3992.33</v>
+        <v>4080.89</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>-9.67</v>
+        <v>78.89</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1930,23 +1930,23 @@
     <row r="32">
       <c r="A32" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B32" s="28" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C32" s="29" t="n">
-        <v>0.7329</v>
+        <v>1.0919</v>
       </c>
       <c r="D32" s="30" t="n">
-        <v>4550.55</v>
+        <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>3378.78</v>
+        <v>4046.17</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>43.78</v>
+        <v>44.17</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1955,17 +1955,17 @@
       </c>
       <c r="H32" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I32" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J32" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K32" s="31" t="inlineStr">
@@ -1977,23 +1977,23 @@
     <row r="33">
       <c r="A33" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B33" s="28" t="n">
-        <v>100032</v>
+        <v>4752</v>
       </c>
       <c r="C33" s="29" t="n">
-        <v>1.0914</v>
+        <v>0.7329</v>
       </c>
       <c r="D33" s="30" t="n">
-        <v>3055.68</v>
+        <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3309.3</v>
+        <v>3542.6</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>-25.7</v>
+        <v>207.6</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2002,17 +2002,17 @@
       </c>
       <c r="H33" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I33" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J33" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K33" s="31" t="inlineStr">
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>695.17</v>
+        <v>716.29</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>28.17</v>
+        <v>49.29</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>694.63</v>
+        <v>715.3200000000001</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>27.63</v>
+        <v>48.32</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2125,16 +2125,16 @@
         <v>502010</v>
       </c>
       <c r="C36" s="29" t="n">
-        <v>0.9949</v>
+        <v>0.9898</v>
       </c>
       <c r="D36" s="30" t="n">
-        <v>281.57</v>
+        <v>377.37</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>270.59</v>
+        <v>370.46</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-9.550000000000001</v>
+        <v>-3.06</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>2040.48</v>
+        <v>2003.38</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>39.48</v>
+        <v>2.38</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>731.96</v>
+        <v>736</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>64.95999999999999</v>
+        <v>69</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>676.22</v>
+        <v>694.5599999999999</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>9.220000000000001</v>
+        <v>27.56</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>731.04</v>
+        <v>734.71</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>64.04000000000001</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2012.97</v>
+        <v>2054.73</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>12.97</v>
+        <v>54.73</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>1977.45</v>
+        <v>2015.79</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>-22.55</v>
+        <v>15.79</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1071.88</v>
+        <v>1087.77</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>71.88</v>
+        <v>87.77</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>980.67</v>
+        <v>1002.42</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>-19.33</v>
+        <v>2.42</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>911.0700000000001</v>
+        <v>955.24</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-88.93000000000001</v>
+        <v>-44.76</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2222.64</v>
+        <v>2231.63</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>222.64</v>
+        <v>231.63</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1141.87</v>
+        <v>1148.17</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>141.87</v>
+        <v>148.17</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1013.62</v>
+        <v>1041.11</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>13.62</v>
+        <v>41.11</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1831.79</v>
+        <v>1798.49</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-168.21</v>
+        <v>-201.51</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1139.98</v>
+        <v>1145.71</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>139.98</v>
+        <v>145.71</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>70464.66</v>
+        <v>71831.02</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>4144.66</v>
+        <v>5511.02</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="K51" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>60664.69</v>
+        <v>62277.34</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>2464.69</v>
+        <v>4077.34</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="K52" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37021.9</v>
+        <v>37420.05</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5021.9</v>
+        <v>5420.05</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="K53" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>35699.35</v>
+        <v>36548.35</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5139.35</v>
+        <v>5988.35</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K54" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3024,10 +3024,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>33805.79</v>
+        <v>34107.09</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>1805.79</v>
+        <v>2107.09</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="K55" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3071,10 +3071,10 @@
         <v>20716.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>24756.37</v>
+        <v>24880.67</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2156.37</v>
+        <v>2280.67</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="K56" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>23721.11</v>
+        <v>24115.98</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4521.11</v>
+        <v>4915.98</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="K57" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>22941.7</v>
+        <v>23314.18</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>3741.7</v>
+        <v>4114.18</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="K58" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3212,10 +3212,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>21291.87</v>
+        <v>21409.32</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2091.87</v>
+        <v>2209.32</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="K59" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15018.98</v>
+        <v>15381.11</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2218.98</v>
+        <v>2581.11</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="K60" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3306,10 +3306,10 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>14347.96</v>
+        <v>14087.09</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-4852.04</v>
+        <v>-5112.91</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="K61" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10001.3</v>
+        <v>10272.56</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>101.3</v>
+        <v>372.56</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="K62" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8313.559999999999</v>
+        <v>8566.059999999999</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>1913.56</v>
+        <v>2166.06</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="K63" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3447,10 +3447,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7517.11</v>
+        <v>7522.72</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2371.99</v>
+        <v>2377.6</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3474,101 +3474,101 @@
       </c>
       <c r="K64" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7230.4</v>
+        <v>7276.98</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>830.4</v>
+        <v>876.98</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7109.43</v>
+        <v>7271.96</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>709.4299999999999</v>
+        <v>871.96</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6657.73</v>
+        <v>6793.86</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-342.27</v>
+        <v>-206.14</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="K67" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>5830.84</v>
+        <v>6113.55</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-569.16</v>
+        <v>-286.45</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="K68" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
@@ -3682,10 +3682,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3318.12</v>
+        <v>3394.02</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-181.88</v>
+        <v>-105.98</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="K69" s="36" t="inlineStr">
         <is>
-          <t>天天基金</t>
+          <t>康天天基金</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6544</v>
+        <v>1.6535</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2139.86</v>
+        <v>2211.21</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3588.93</v>
+        <v>3588.79</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-67.26000000000001</v>
+        <v>-67.40000000000001</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.425</v>
+        <v>1.4258</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2381.52</v>
+        <v>2462.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3568.34</v>
+        <v>3568.21</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>57.2</v>
+        <v>57.07</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -762,16 +762,16 @@
         <v>3318</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0.9348</v>
+        <v>0.9344</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>3153.28</v>
+        <v>3272.2</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3020.05</v>
+        <v>3019.91</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-37.51</v>
+        <v>-37.65</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         <v>70023</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>1.7912</v>
+        <v>1.7941</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>1219.16</v>
+        <v>1266.95</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2364.49</v>
+        <v>2364.38</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>91.41</v>
+        <v>91.3</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1171</v>
+        <v>2.1197</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>886.95</v>
+        <v>930.7</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2018.65</v>
+        <v>2018.5</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>45.89</v>
+        <v>45.74</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>968</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.9583</v>
+        <v>0.9608</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>712.84</v>
+        <v>797.84</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>782.7</v>
+        <v>782.6</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>16.13</v>
+        <v>16.03</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>431.56</v>
+        <v>432.2</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>74.78</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="K51" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="K52" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="K53" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K54" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="K55" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="K56" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="K57" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="K58" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="K59" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="K60" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="K61" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="K62" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="K63" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="K64" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="K65" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="K66" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="K67" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="K68" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="K69" s="36" t="inlineStr">
         <is>
-          <t>康天天基金</t>
+          <t>天天基金</t>
         </is>
       </c>
     </row>

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -627,10 +627,10 @@
         <v>2211.21</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3588.79</v>
+        <v>3562.26</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-67.40000000000001</v>
+        <v>-93.93000000000001</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>2462.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3568.21</v>
+        <v>3526.34</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>57.07</v>
+        <v>15.2</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3317.89</v>
+        <v>3297.09</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>270.95</v>
+        <v>250.15</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>3272.2</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3019.91</v>
+        <v>3003.23</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-37.65</v>
+        <v>-54.33</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1266.95</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2364.38</v>
+        <v>2340.18</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>91.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>930.7</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2018.5</v>
+        <v>1998.03</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>45.74</v>
+        <v>25.27</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>797.84</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>782.6</v>
+        <v>778.77</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>16.03</v>
+        <v>12.2</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>515.89</v>
+        <v>513.08</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-25</v>
+        <v>-27.81</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>432.2</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>74.78</v>
+        <v>75.42</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>332.2</v>
+        <v>329.72</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>18.94</v>
+        <v>16.46</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>88.39</v>
+        <v>87.38</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-4.32</v>
+        <v>-5.33</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9083.73</v>
+        <v>9016.809999999999</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2916.26</v>
+        <v>-2983.19</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8224.200000000001</v>
+        <v>8135.1</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1914.3</v>
+        <v>1825.2</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36500.1</v>
+        <v>36127</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>5132.4</v>
+        <v>4759.3</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>208394.8</v>
+        <v>207075.6</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-8924</v>
+        <v>-10243.2</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24369.8</v>
+        <v>24200.8</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5272.8</v>
+        <v>-5441.8</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29887.8</v>
+        <v>29430</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>4283.7</v>
+        <v>3825.9</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>26393.4</v>
+        <v>26188.8</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3239.5</v>
+        <v>-3444.1</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14805</v>
+        <v>14854.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1953</v>
+        <v>2002.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15327.2</v>
+        <v>15226</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2456.4</v>
+        <v>2355.2</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>20635.2</v>
+        <v>20606.4</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2332.8</v>
+        <v>2304</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7486.18</v>
+        <v>7443.84</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>149.18</v>
+        <v>106.84</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5278.07</v>
+        <v>5239.19</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-57.93</v>
+        <v>-96.81</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4849.53</v>
+        <v>4825.8</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>180.53</v>
+        <v>156.8</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4080.89</v>
+        <v>4058.75</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>78.89</v>
+        <v>56.75</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4046.17</v>
+        <v>4013.19</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>44.17</v>
+        <v>11.19</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3542.6</v>
+        <v>3516.21</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>207.6</v>
+        <v>181.21</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>716.29</v>
+        <v>712.6</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>49.29</v>
+        <v>45.6</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>715.3200000000001</v>
+        <v>711.49</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>48.32</v>
+        <v>44.49</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>377.37</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>370.46</v>
+        <v>364.88</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-3.06</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>2003.38</v>
+        <v>1945.09</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>2.38</v>
+        <v>-55.91</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>694.5599999999999</v>
+        <v>690.15</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>27.56</v>
+        <v>23.15</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>734.71</v>
+        <v>737.16</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>67.70999999999999</v>
+        <v>70.16</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2054.73</v>
+        <v>2043.11</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>54.73</v>
+        <v>43.11</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2015.79</v>
+        <v>1999.36</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>15.79</v>
+        <v>-0.64</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1087.77</v>
+        <v>1076.12</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>87.77</v>
+        <v>76.12</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1002.42</v>
+        <v>996.99</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>2.42</v>
+        <v>-3.02</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>955.24</v>
+        <v>948.13</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-44.76</v>
+        <v>-51.87</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2231.63</v>
+        <v>2239.34</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>231.63</v>
+        <v>239.34</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1041.11</v>
+        <v>1034.49</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>41.11</v>
+        <v>34.49</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1798.49</v>
+        <v>1746.15</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-201.51</v>
+        <v>-253.85</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1145.71</v>
+        <v>1149.52</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>145.71</v>
+        <v>149.52</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>71831.02</v>
+        <v>71245.44</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>5511.02</v>
+        <v>4925.44</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>62277.34</v>
+        <v>61972.58</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>4077.34</v>
+        <v>3772.58</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37420.05</v>
+        <v>37297.04</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5420.05</v>
+        <v>5297.04</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>36548.35</v>
+        <v>36507.34</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5988.35</v>
+        <v>5947.34</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>34107.09</v>
+        <v>34006.66</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>2107.09</v>
+        <v>2006.66</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20716.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>24880.67</v>
+        <v>24963.53</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2280.67</v>
+        <v>2363.53</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24115.98</v>
+        <v>23867.36</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4915.98</v>
+        <v>4667.36</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23314.18</v>
+        <v>22992.49</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>4114.18</v>
+        <v>3792.49</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15381.11</v>
+        <v>15295.34</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2581.11</v>
+        <v>2495.34</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>14087.09</v>
+        <v>13677.15</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-5112.91</v>
+        <v>-5522.85</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10272.56</v>
+        <v>10207.29</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>372.56</v>
+        <v>307.29</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8566.059999999999</v>
+        <v>8521.98</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>2166.06</v>
+        <v>2121.98</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7522.72</v>
+        <v>7517.11</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2377.6</v>
+        <v>2371.99</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7276.98</v>
+        <v>7255.98</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>876.98</v>
+        <v>855.98</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,42 +3528,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7271.96</v>
+        <v>7223.37</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>871.96</v>
+        <v>823.37</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6793.86</v>
+        <v>6757.3</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-206.14</v>
+        <v>-242.7</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6113.55</v>
+        <v>6068</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-286.45</v>
+        <v>-332</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3394.02</v>
+        <v>3373.62</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-105.98</v>
+        <v>-126.38</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>

--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="13.5"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="13.5" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>144837.41</v>
+        <v>148153.22</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>144837.41</v>
+        <v>148153.22</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>5409.19</v>
+        <v>5695.51</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8135.1</v>
+        <v>8086.5</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1825.2</v>
+        <v>1776.6</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36127</v>
+        <v>35945</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>4759.3</v>
+        <v>4577.3</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>207075.6</v>
+        <v>207386</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-10243.2</v>
+        <v>-9932.799999999999</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14854.5</v>
+        <v>14823</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>2002.5</v>
+        <v>1971</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15226</v>
+        <v>15180</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2355.2</v>
+        <v>2309.2</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>20606.4</v>
+        <v>20361.6</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2304</v>
+        <v>2059.2</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -2125,16 +2125,16 @@
         <v>502010</v>
       </c>
       <c r="C36" s="29" t="n">
-        <v>0.9898</v>
+        <v>0.9853</v>
       </c>
       <c r="D36" s="30" t="n">
-        <v>377.37</v>
+        <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>364.88</v>
+        <v>458.17</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.73</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -3714,6 +3714,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="11.25" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="13.5"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>148153.22</v>
+        <v>148201.27</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>148153.22</v>
+        <v>148201.27</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>5695.51</v>
+        <v>5748.69</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         <v>2211.21</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3562.26</v>
+        <v>3546.78</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-93.93000000000001</v>
+        <v>-109.41</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>2462.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3526.34</v>
+        <v>3499.26</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>15.2</v>
+        <v>-11.88</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3297.09</v>
+        <v>3269.52</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>250.15</v>
+        <v>222.58</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>3272.2</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3003.23</v>
+        <v>2985.56</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-54.33</v>
+        <v>-72</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1266.95</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2340.18</v>
+        <v>2311.93</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>67.09999999999999</v>
+        <v>38.85</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>930.7</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1998.03</v>
+        <v>1973.83</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>25.27</v>
+        <v>1.07</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>797.84</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>778.77</v>
+        <v>762.58</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>12.2</v>
+        <v>-3.99</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>513.08</v>
+        <v>512.48</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-27.81</v>
+        <v>-28.41</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>432.2</v>
+        <v>415.39</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>75.42</v>
+        <v>58.61</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>329.72</v>
+        <v>325.75</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>16.46</v>
+        <v>12.49</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>87.38</v>
+        <v>86.81</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5.33</v>
+        <v>-5.9</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9016.809999999999</v>
+        <v>9011.790000000001</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2983.19</v>
+        <v>-2988.21</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8086.5</v>
+        <v>8010.9</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1776.6</v>
+        <v>1701</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>35945</v>
+        <v>35562.8</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>4577.3</v>
+        <v>4195.1</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>207386</v>
+        <v>205252</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-9932.799999999999</v>
+        <v>-12066.8</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24200.8</v>
+        <v>24167</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5441.8</v>
+        <v>-5475.6</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29430</v>
+        <v>29397.3</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>3825.9</v>
+        <v>3793.2</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>26188.8</v>
+        <v>26052.4</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3444.1</v>
+        <v>-3580.5</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14823</v>
+        <v>14791.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1971</v>
+        <v>1939.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15180</v>
+        <v>14848.8</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2309.2</v>
+        <v>1978</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>20361.6</v>
+        <v>19713.6</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2059.2</v>
+        <v>1411.2</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7443.84</v>
+        <v>7382.44</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>106.84</v>
+        <v>45.44</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5239.19</v>
+        <v>5236.27</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-96.81</v>
+        <v>-99.73</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4825.8</v>
+        <v>4725.44</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>156.8</v>
+        <v>56.44</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4058.75</v>
+        <v>4021.85</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>56.75</v>
+        <v>19.85</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4013.19</v>
+        <v>3991.2</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>11.19</v>
+        <v>-10.8</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3516.21</v>
+        <v>3477.99</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>181.21</v>
+        <v>142.99</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>712.6</v>
+        <v>696.98</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>45.6</v>
+        <v>29.98</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>711.49</v>
+        <v>696.25</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>44.49</v>
+        <v>29.25</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>458.17</v>
+        <v>456.79</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-8.73</v>
+        <v>-10.11</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>1945.09</v>
+        <v>1982.18</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>-55.91</v>
+        <v>-18.81</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>736</v>
+        <v>718.12</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>69</v>
+        <v>51.12</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>690.15</v>
+        <v>685.46</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>23.15</v>
+        <v>18.46</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>737.16</v>
+        <v>734.71</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>70.16</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2043.11</v>
+        <v>2026.26</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>43.11</v>
+        <v>26.26</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>1999.36</v>
+        <v>1988.41</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>-0.64</v>
+        <v>-11.59</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1076.12</v>
+        <v>1060.23</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>76.12</v>
+        <v>60.23</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>996.99</v>
+        <v>987.92</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>-3.02</v>
+        <v>-12.08</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>948.13</v>
+        <v>937.8200000000001</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-51.87</v>
+        <v>-62.18</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2239.34</v>
+        <v>2240.44</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>239.34</v>
+        <v>240.44</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1148.17</v>
+        <v>1120.28</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>148.17</v>
+        <v>120.28</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1034.49</v>
+        <v>1027.47</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>34.49</v>
+        <v>27.47</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1746.15</v>
+        <v>1779.45</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-253.85</v>
+        <v>-220.55</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1149.52</v>
+        <v>1145.71</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>149.52</v>
+        <v>145.71</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>65064.33</v>
       </c>
       <c r="E51" s="35" t="n">
-        <v>71245.44</v>
+        <v>70855.05</v>
       </c>
       <c r="F51" s="35" t="n">
-        <v>4925.44</v>
+        <v>4535.05</v>
       </c>
       <c r="G51" s="36" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>61972.58</v>
+        <v>60683.74</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>3772.58</v>
+        <v>2483.74</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37297.04</v>
+        <v>37054.27</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5297.04</v>
+        <v>5054.27</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>36507.34</v>
+        <v>35051.31</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5947.34</v>
+        <v>4491.31</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>34006.66</v>
+        <v>33765.62</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>2006.66</v>
+        <v>1765.62</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20716.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>24963.53</v>
+        <v>24880.67</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2363.53</v>
+        <v>2280.67</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>23867.36</v>
+        <v>23501.74</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4667.36</v>
+        <v>4301.74</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>22992.49</v>
+        <v>22810.48</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>3792.49</v>
+        <v>3610.48</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>21409.32</v>
+        <v>20889.19</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2209.32</v>
+        <v>1689.19</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15295.34</v>
+        <v>15133.33</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2495.34</v>
+        <v>2333.33</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>13677.15</v>
+        <v>13938.02</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-5522.85</v>
+        <v>-5261.98</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10207.29</v>
+        <v>10137.95</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>307.29</v>
+        <v>237.95</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8521.98</v>
+        <v>8335.120000000001</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>2121.98</v>
+        <v>1935.12</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7517.11</v>
+        <v>7533.94</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2371.99</v>
+        <v>2388.82</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>5328.62</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7255.98</v>
+        <v>7232</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>855.98</v>
+        <v>832</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7223.37</v>
+        <v>7219.35</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>823.37</v>
+        <v>819.35</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6757.3</v>
+        <v>6700.52</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-242.7</v>
+        <v>-299.48</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6068</v>
+        <v>6002.04</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-332</v>
+        <v>-397.96</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3373.62</v>
+        <v>3327.79</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-126.38</v>
+        <v>-172.21</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3714,6 +3714,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
+++ b/Portfolio/scripts/output/201911/康力泉/康力泉整体资产配置.xlsx
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>148201.27</v>
+        <v>129774.17</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>148201.27</v>
+        <v>129774.17</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>5748.69</v>
+        <v>5802.88</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6535</v>
+        <v>1.6525</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2211.21</v>
+        <v>2280.92</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3546.78</v>
+        <v>3660.88</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-109.41</v>
+        <v>-108.45</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4258</v>
+        <v>1.4264</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2462.53</v>
+        <v>2540.22</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3499.26</v>
+        <v>3614.73</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>-11.88</v>
+        <v>-8.65</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3269.52</v>
+        <v>3235.62</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>222.58</v>
+        <v>188.68</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -762,16 +762,16 @@
         <v>3318</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0.9344</v>
+        <v>0.9336</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>3272.2</v>
+        <v>3390.61</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>2985.56</v>
+        <v>3092.91</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-72</v>
+        <v>-72.5</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         <v>70023</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>1.7941</v>
+        <v>1.7965</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>1266.95</v>
+        <v>1314.93</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2311.93</v>
+        <v>2411.58</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>38.85</v>
+        <v>49.26</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1197</v>
+        <v>2.1218</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>930.7</v>
+        <v>973.88</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>1973.83</v>
+        <v>2075.44</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>1.07</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>968</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.9608</v>
+        <v>0.9605</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>797.84</v>
+        <v>887.74</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>762.58</v>
+        <v>835.9</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-3.99</v>
+        <v>-16.78</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>512.48</v>
+        <v>512.59</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-28.41</v>
+        <v>-28.3</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>415.39</v>
+        <v>405.18</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>58.61</v>
+        <v>48.4</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>325.75</v>
+        <v>320.3</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>12.49</v>
+        <v>7.04</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>86.81</v>
+        <v>86.86</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5.9</v>
+        <v>-5.85</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9011.790000000001</v>
+        <v>9097.120000000001</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>-2988.21</v>
+        <v>-2902.88</v>
       </c>
       <c r="G18" s="21" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>8010.9</v>
+        <v>7932.6</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1701</v>
+        <v>1622.7</v>
       </c>
       <c r="G19" s="26" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>35562.8</v>
+        <v>35371.7</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>4195.1</v>
+        <v>4004</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24167</v>
+        <v>24505</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5475.6</v>
+        <v>-5137.6</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29397.3</v>
+        <v>29364.6</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>3793.2</v>
+        <v>3760.5</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>26052.4</v>
+        <v>25472.7</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3580.5</v>
+        <v>-4160.2</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14791.5</v>
+        <v>14692.5</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1939.5</v>
+        <v>1840.5</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14848.8</v>
+        <v>14720</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1978</v>
+        <v>1849.2</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>19713.6</v>
+        <v>19209.6</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>1411.2</v>
+        <v>907.2</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>3813.64</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>7382.44</v>
+        <v>7369.86</v>
       </c>
       <c r="F28" s="30" t="n">
-        <v>45.44</v>
+        <v>32.86</v>
       </c>
       <c r="G28" s="31" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5236.27</v>
+        <v>5285.85</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-99.73</v>
+        <v>-50.15</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4725.44</v>
+        <v>4655.23</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>56.44</v>
+        <v>-13.77</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4021.85</v>
+        <v>4014.47</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>19.85</v>
+        <v>12.47</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3477.99</v>
+        <v>3420.19</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>142.99</v>
+        <v>85.19</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>696.98</v>
+        <v>691.17</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>29.98</v>
+        <v>24.17</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>696.25</v>
+        <v>690.0599999999999</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>29.25</v>
+        <v>23.06</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>456.79</v>
+        <v>457.17</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-10.11</v>
+        <v>-9.73</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>1982.18</v>
+        <v>1976.89</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>-18.81</v>
+        <v>-24.11</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>718.12</v>
+        <v>760.22</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>51.12</v>
+        <v>93.22</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>685.46</v>
+        <v>678.79</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>18.46</v>
+        <v>11.79</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>734.71</v>
+        <v>735.9400000000001</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>67.70999999999999</v>
+        <v>68.94</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2026.26</v>
+        <v>2022.81</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>26.26</v>
+        <v>22.81</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1060.23</v>
+        <v>1050.7</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>60.23</v>
+        <v>50.7</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>987.92</v>
+        <v>986.11</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>-12.08</v>
+        <v>-13.89</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>937.8200000000001</v>
+        <v>922.24</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-62.18</v>
+        <v>-77.76000000000001</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2240.44</v>
+        <v>2225.4</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>240.44</v>
+        <v>225.4</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1120.28</v>
+        <v>1185.96</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>120.28</v>
+        <v>185.96</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1027.47</v>
+        <v>1017.48</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>27.47</v>
+        <v>17.48</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1779.45</v>
+        <v>1774.7</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-220.55</v>
+        <v>-225.3</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1145.71</v>
+        <v>1147.61</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>145.71</v>
+        <v>147.61</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>63490</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>60683.74</v>
+        <v>59782.18</v>
       </c>
       <c r="F52" s="35" t="n">
-        <v>2483.74</v>
+        <v>1582.18</v>
       </c>
       <c r="G52" s="36" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>32370.29</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>37054.27</v>
+        <v>37018.66</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>5054.27</v>
+        <v>5018.66</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>41014.88</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>35051.31</v>
+        <v>34148.98</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>4491.31</v>
+        <v>3588.98</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>33765.62</v>
+        <v>33685.27</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>1765.62</v>
+        <v>1685.27</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20716.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>24880.67</v>
+        <v>25046.4</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2280.67</v>
+        <v>2446.4</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>14624.61</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>23501.74</v>
+        <v>23340.87</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4301.74</v>
+        <v>4140.87</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>21163.93</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>22810.48</v>
+        <v>22763.92</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>3610.48</v>
+        <v>3563.92</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>16778.47</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>20889.19</v>
+        <v>22114.02</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1689.19</v>
+        <v>2914.02</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>15133.33</v>
+        <v>15152.39</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2333.33</v>
+        <v>2352.39</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>37267.45</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>13938.02</v>
+        <v>13900.75</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>-5261.98</v>
+        <v>-5299.25</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>6798.52</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>10137.95</v>
+        <v>10039.37</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>237.95</v>
+        <v>139.37</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>4791.13</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>8335.120000000001</v>
+        <v>8265.65</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>1935.12</v>
+        <v>1865.65</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7533.94</v>
+        <v>7567.6</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2388.82</v>
+        <v>2422.48</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7232</v>
+        <v>7287.71</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>832</v>
+        <v>887.71</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,42 +3528,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7219.35</v>
+        <v>7225.07</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>819.35</v>
+        <v>825.0700000000001</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3588,10 +3588,10 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6700.52</v>
+        <v>6686.51</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-299.48</v>
+        <v>-313.49</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7852.99</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6002.04</v>
+        <v>5902.3</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-397.96</v>
+        <v>-497.7</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3580.2</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3327.79</v>
+        <v>3310.25</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-172.21</v>
+        <v>-189.75</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
